--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{856E565B-C52C-440D-91D8-CF569BC7E350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{012E6077-E1D6-41DE-97D0-B575150C79BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{70D11A63-6A45-4F8A-8723-1A57649D4B3E}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{D288B1B3-C412-480F-8FC8-6F811487D202}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE466317-0EAD-4DA0-A806-7CA4577B1B83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D64A082-F589-417F-AEFB-2D882E657AA6}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{012E6077-E1D6-41DE-97D0-B575150C79BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8FADD3D-8EAA-4912-A996-7C0DDCF529CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{D288B1B3-C412-480F-8FC8-6F811487D202}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{F5C4F724-2C06-4D2E-9FF9-4C8EF8B6A438}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D64A082-F589-417F-AEFB-2D882E657AA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1FEB30-8757-4BE4-A88B-68CF8D9D3157}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8FADD3D-8EAA-4912-A996-7C0DDCF529CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{959459A5-0FAB-4A7B-AEF8-F3FEE2B61A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{F5C4F724-2C06-4D2E-9FF9-4C8EF8B6A438}"/>
+    <workbookView xWindow="3247" yWindow="327" windowWidth="7513" windowHeight="7800" xr2:uid="{5D6E8CE2-B114-4962-92A5-CBB058FBA5F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1FEB30-8757-4BE4-A88B-68CF8D9D3157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF756EE2-3753-4E87-926A-CFE9BF916BF9}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{959459A5-0FAB-4A7B-AEF8-F3FEE2B61A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{445DD0BE-F782-435D-A8C8-F652661AA4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3247" yWindow="327" windowWidth="7513" windowHeight="7800" xr2:uid="{5D6E8CE2-B114-4962-92A5-CBB058FBA5F1}"/>
+    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{C5DCDDDF-1709-4BB3-BB12-4F242ED57079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF756EE2-3753-4E87-926A-CFE9BF916BF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C9F81C-CDB0-43B6-801F-FC21586EA054}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{445DD0BE-F782-435D-A8C8-F652661AA4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05EAF3A0-44AF-4445-9251-CEF039E7724B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{C5DCDDDF-1709-4BB3-BB12-4F242ED57079}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{ED26E111-6B53-4AAD-BFDF-33AC992A20F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C9F81C-CDB0-43B6-801F-FC21586EA054}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDCAB1B-15F2-46BC-9884-7418608D71B7}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6535,7 +6535,7 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6648,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -8556,7 +8556,7 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>1</v>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.2/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05EAF3A0-44AF-4445-9251-CEF039E7724B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D0CAD0-EB86-4F38-971D-8E7E8AE88D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{ED26E111-6B53-4AAD-BFDF-33AC992A20F5}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{5FAF154B-73ED-4821-9300-DC687F59C74D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDCAB1B-15F2-46BC-9884-7418608D71B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BFBCB4-8697-407F-8730-829C0A7D685E}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
